--- a/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V4 Consolidating by Position/W1_Consolidate1.xlsx
+++ b/Visualization/Excel Specialization/Excel Skills for Business Intermediate I/Week 1/W1-V4 Consolidating by Position/W1_Consolidate1.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nic\Documents\Freelance Training\Maquarie Uni\MOOCS\Course2\Workbooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sandeep Tukkunor\Desktop\100 Days Of Code\Visualization\Excel Specialization\Excel Skills for Business Intermediate I\Week 1\W1-V4 Consolidating by Position\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51F3DA3-3DE1-4CE8-86E6-2B870E861CCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="43" windowWidth="37397" windowHeight="15994"/>
+    <workbookView xWindow="10068" yWindow="5772" windowWidth="11544" windowHeight="6192" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HR EXPENSES" sheetId="8" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -108,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
@@ -394,7 +395,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,17 +472,20 @@
     <xf numFmtId="164" fontId="13" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="Do Not Type" xfId="4"/>
+    <cellStyle name="Do Not Type" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="9" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input Custom" xfId="2"/>
-    <cellStyle name="Instructions" xfId="5"/>
+    <cellStyle name="Input Custom" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Instructions" xfId="5" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Table Totals" xfId="3"/>
+    <cellStyle name="Table Totals" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="3">
@@ -532,7 +536,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="Expense Report" defaultPivotStyle="PivotStyleLight15">
-    <tableStyle name="Expense Report" pivot="0" count="3">
+    <tableStyle name="Expense Report" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="2"/>
       <tableStyleElement type="totalRow" dxfId="1"/>
       <tableStyleElement type="lastColumn" dxfId="0"/>
@@ -858,27 +862,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="9"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.08984375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="33.26953125" style="2" customWidth="1"/>
-    <col min="3" max="7" width="17.1796875" style="2" customWidth="1"/>
-    <col min="8" max="8" width="1.453125" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="2.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="2" customWidth="1"/>
+    <col min="3" max="7" width="17.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="1.42578125" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="3" customFormat="1" ht="54.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>23</v>
       </c>
@@ -891,8 +895,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" s="21" customFormat="1" ht="12" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
@@ -900,7 +904,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>11</v>
       </c>
@@ -908,7 +912,7 @@
         <v>0.67</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>12</v>
       </c>
@@ -928,111 +932,161 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="5">
+        <v>2263.4</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2331.3000000000002</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2996.24</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="18">
         <f>SUM(C7:F7)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>7590.9400000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
+      <c r="C8" s="7">
+        <v>1520.9938000000002</v>
+      </c>
+      <c r="D8" s="7">
+        <v>1569.3812000000003</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1991.3472000000002</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="18">
         <f t="shared" ref="G8:G13" si="0">SUM(C8:F8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>5081.7222000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
+      <c r="C9" s="7">
+        <v>189.87</v>
+      </c>
+      <c r="D9" s="7">
+        <v>257.08</v>
+      </c>
+      <c r="E9" s="7">
+        <v>302.02</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>748.97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
+      <c r="C10" s="7">
+        <v>355.08929999999998</v>
+      </c>
+      <c r="D10" s="7">
+        <v>325.77</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>680.85929999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
+      <c r="C11" s="7">
+        <v>116.31</v>
+      </c>
+      <c r="D11" s="7">
+        <v>150.19649999999999</v>
+      </c>
+      <c r="E11" s="7">
+        <v>197.65899999999999</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>464.16549999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
+      <c r="C12" s="7">
+        <v>375</v>
+      </c>
+      <c r="D12" s="7">
+        <v>413.79039999999998</v>
+      </c>
+      <c r="E12" s="7">
+        <v>391.16160000000002</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1179.952</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
+      <c r="C13" s="7">
+        <v>1298</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>560</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="C14" s="9">
+        <v>3855.2631000000001</v>
+      </c>
+      <c r="D14" s="9">
+        <v>2716.2181</v>
+      </c>
+      <c r="E14" s="9">
+        <v>3442.1878000000006</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
       <c r="G14" s="9">
         <f>SUM(G7:G13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>17604.608999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -1040,7 +1094,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
     </row>
-    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>13</v>
       </c>
@@ -1050,72 +1104,104 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
+      <c r="C17" s="7">
+        <v>856.91</v>
+      </c>
+      <c r="D17" s="7">
+        <v>932.29</v>
+      </c>
+      <c r="E17" s="7">
+        <v>1655.7251999999999</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="18">
         <f t="shared" ref="G17:G20" si="1">SUM(C17:F17)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3444.9251999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
+      <c r="C18" s="7">
+        <v>55.43</v>
+      </c>
+      <c r="D18" s="7">
+        <v>76.048699999999997</v>
+      </c>
+      <c r="E18" s="7">
+        <v>94.95</v>
+      </c>
       <c r="F18" s="7"/>
       <c r="G18" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>226.42869999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
+      <c r="C19" s="7">
+        <v>278.46000000000004</v>
+      </c>
+      <c r="D19" s="7">
+        <v>1575.7896000000001</v>
+      </c>
+      <c r="E19" s="7">
+        <v>1162.8220000000001</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>3017.0716000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="C20" s="7">
+        <v>1036.5079999999998</v>
+      </c>
+      <c r="D20" s="7">
+        <v>916.89999999999986</v>
+      </c>
+      <c r="E20" s="7">
+        <v>666.71679999999992</v>
+      </c>
       <c r="F20" s="7"/>
       <c r="G20" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2620.1247999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="C21" s="9">
+        <v>2227.308</v>
+      </c>
+      <c r="D21" s="9">
+        <v>3501.0282999999999</v>
+      </c>
+      <c r="E21" s="9">
+        <v>3580.2140000000004</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0</v>
+      </c>
       <c r="G21" s="9">
         <f>SUM(G17:G20)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>9308.550299999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -1123,7 +1209,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
     </row>
-    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>14</v>
       </c>
@@ -1133,72 +1219,104 @@
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
     </row>
-    <row r="24" spans="2:7" s="11" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:7" s="11" customFormat="1" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
+      <c r="C24" s="26">
+        <v>1225.643</v>
+      </c>
+      <c r="D24" s="26">
+        <v>1463.816</v>
+      </c>
+      <c r="E24" s="26">
+        <v>1586.3450000000003</v>
+      </c>
       <c r="F24" s="24"/>
       <c r="G24" s="18">
         <f t="shared" ref="G24:G27" si="2">SUM(C24:F24)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4275.8040000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
+      <c r="C25" s="26">
+        <v>1420.2705000000001</v>
+      </c>
+      <c r="D25" s="26">
+        <v>120.98740000000001</v>
+      </c>
+      <c r="E25" s="26">
+        <v>3403.7421999999997</v>
+      </c>
       <c r="F25" s="24"/>
       <c r="G25" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>4945.0000999999993</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="C26" s="26">
+        <v>863.72439999999995</v>
+      </c>
+      <c r="D26" s="26">
+        <v>804.06600000000003</v>
+      </c>
+      <c r="E26" s="26">
+        <v>1132.1944000000001</v>
+      </c>
       <c r="F26" s="24"/>
       <c r="G26" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>2799.9848000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="C27" s="26">
+        <v>53.847999999999999</v>
+      </c>
+      <c r="D27" s="26">
+        <v>458.86</v>
+      </c>
+      <c r="E27" s="26">
+        <v>734.21599999999989</v>
+      </c>
       <c r="F27" s="24"/>
       <c r="G27" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>1246.924</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
+      <c r="C28" s="25">
+        <v>3563.4859000000001</v>
+      </c>
+      <c r="D28" s="25">
+        <v>2847.7294000000002</v>
+      </c>
+      <c r="E28" s="25">
+        <v>6856.4976000000006</v>
+      </c>
+      <c r="F28" s="25">
+        <v>0</v>
+      </c>
       <c r="G28" s="9">
         <f>SUM(G24:G27)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>13267.712899999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -1206,21 +1324,21 @@
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
     </row>
-    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="13">
         <f>SUM(C14,C21,C28)</f>
-        <v>0</v>
+        <v>9646.0570000000007</v>
       </c>
       <c r="D30" s="13">
         <f>SUM(D14,D21,D28)</f>
-        <v>0</v>
+        <v>9064.9758000000002</v>
       </c>
       <c r="E30" s="13">
         <f>SUM(E14,E21,E28)</f>
-        <v>0</v>
+        <v>13878.899400000002</v>
       </c>
       <c r="F30" s="13">
         <f>SUM(F14,F21,F28)</f>
@@ -1228,14 +1346,20 @@
       </c>
       <c r="G30" s="13">
         <f>SUM(G14,G21,G28)</f>
-        <v>0</v>
+        <v>40180.872199999998</v>
       </c>
     </row>
   </sheetData>
-  <dataConsolidate/>
+  <dataConsolidate>
+    <dataRefs count="3">
+      <dataRef ref="C7:F28" sheet="HR MELBOURNE" r:id="rId1"/>
+      <dataRef ref="C7:F28" sheet="HR PERTH" r:id="rId2"/>
+      <dataRef ref="C7:F28" sheet="HR SYDNEY" r:id="rId3"/>
+    </dataRefs>
+  </dataConsolidate>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="98" fitToHeight="0" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
